--- a/詳細設計_画面遷移図.xlsx
+++ b/詳細設計_画面遷移図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/text/07_Design/【実習】各種設計書（テンプレ）/詳細設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/sekkei/sekkei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{89EC9701-C760-4E8D-9B54-CD3CADB098E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0191472-648B-4D97-87AA-E021FA8734AB}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{89EC9701-C760-4E8D-9B54-CD3CADB098E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26BE15F3-9D6E-46D8-80FA-425B879876D1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -168,6 +168,13 @@
   </si>
   <si>
     <t>NG</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3542,6 +3549,306 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="コネクタ: カギ線 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F346834-A231-53BE-A7D6-0046AA5DD2D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="1"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="3295650" y="3054350"/>
+          <a:ext cx="158750" cy="1606550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -144000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="コネクタ: カギ線 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29EFB86C-C2C3-1277-93C7-1B0E31E7F678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="4679950" y="3797301"/>
+          <a:ext cx="95250" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -33333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="コネクタ: カギ線 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342E5920-88F0-ED23-37E1-C526F4E4B7AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="1"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="6788150" y="3841750"/>
+          <a:ext cx="146050" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -156522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBEB99F-643C-8A44-E169-3374B1913FBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="4184650"/>
+          <a:ext cx="406400" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A689ADFA-F4C4-410D-92EF-826CC65E14B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4622800" y="4171950"/>
+          <a:ext cx="476250" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5482,7 +5789,7 @@
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3:AC3"/>
+      <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -6344,7 +6651,9 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -6401,7 +6710,7 @@
       <c r="O27" s="5"/>
       <c r="V27" s="36"/>
       <c r="W27" s="36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
